--- a/Assets/xlsx/data.xlsx
+++ b/Assets/xlsx/data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityFile\Project_Mobile\Assets\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8F27DB-2507-45C7-89E5-F449D3BA4C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1035" windowWidth="21675" windowHeight="14250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1035" windowWidth="21675" windowHeight="14250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -142,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -491,7 +485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -815,11 +809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB1DA3B-79D8-4B42-9DB2-F2709F1E2EB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E9" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -873,11 +867,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FE6C0D-495C-4820-83F6-ADC2E0C301A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -934,11 +928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461F33EB-6CF8-479F-B0E0-8082506C888B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/xlsx/data.xlsx
+++ b/Assets/xlsx/data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>code</t>
   </si>
@@ -130,6 +130,30 @@
   </si>
   <si>
     <t>UI/1-bit 16px icons part-1 outlines[ExplosionSkill]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefab/Skill/P_SkillMagicTornado.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/1-bit 16px icons part-1 outlines[MagicTornadoSkill]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicTornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefab/Skill/P_SkillFireBall.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/1-bit 16px icons part-1 outlines[FireBallSkill]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,15 +892,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="67.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -909,16 +933,56 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/xlsx/data.xlsx
+++ b/Assets/xlsx/data.xlsx
@@ -895,7 +895,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -976,7 +976,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>

--- a/Assets/xlsx/data.xlsx
+++ b/Assets/xlsx/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1035" windowWidth="21675" windowHeight="14250" activeTab="2"/>
+    <workbookView xWindow="1170" yWindow="1035" windowWidth="21675" windowHeight="14250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>code</t>
   </si>
@@ -52,14 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>itemType</t>
   </si>
   <si>
@@ -154,6 +146,22 @@
   </si>
   <si>
     <t>UI/1-bit 16px icons part-1 outlines[FireBallSkill]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedAxeDemon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlyingHead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefab/Monster/FlyingHead.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,10 +547,10 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -562,10 +570,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -585,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -605,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -625,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -675,7 +683,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -692,7 +700,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -723,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -740,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -757,7 +765,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -774,7 +782,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -805,7 +813,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -822,7 +830,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -836,13 +844,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -853,10 +862,10 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -864,13 +873,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -878,7 +887,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -894,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -907,22 +919,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -930,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -939,10 +951,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -950,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -959,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -970,7 +982,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -979,10 +991,10 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -996,20 +1008,20 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1017,10 +1029,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/xlsx/data.xlsx
+++ b/Assets/xlsx/data.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1035" windowWidth="21675" windowHeight="14250" activeTab="1"/>
+    <workbookView xWindow="1170" yWindow="1035" windowWidth="21675" windowHeight="14250" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
     <sheet name="monsters" sheetId="3" r:id="rId2"/>
     <sheet name="skills" sheetId="5" r:id="rId3"/>
     <sheet name="stages" sheetId="4" r:id="rId4"/>
+    <sheet name="bossMonsters" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
   <si>
     <t>code</t>
   </si>
@@ -158,6 +159,97 @@
   </si>
   <si>
     <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Prefab/Monster/FlyingHead.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲-2</t>
+  </si>
+  <si>
+    <t>숲-3</t>
+  </si>
+  <si>
+    <t>숲-4</t>
+  </si>
+  <si>
+    <t>숲-5</t>
+  </si>
+  <si>
+    <t>숲-6</t>
+  </si>
+  <si>
+    <t>숲-7</t>
+  </si>
+  <si>
+    <t>숲-8</t>
+  </si>
+  <si>
+    <t>숲-9</t>
+  </si>
+  <si>
+    <t>숲-10</t>
+  </si>
+  <si>
+    <t>숲-11</t>
+  </si>
+  <si>
+    <t>숲-12</t>
+  </si>
+  <si>
+    <t>숲-13</t>
+  </si>
+  <si>
+    <t>숲-14</t>
+  </si>
+  <si>
+    <t>숲-15</t>
+  </si>
+  <si>
+    <t>숲-16</t>
+  </si>
+  <si>
+    <t>숲-17</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlyingHead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -521,7 +613,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -844,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1005,15 +1097,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1023,8 +1115,11 @@
       <c r="C1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1033,10 +1128,341 @@
       </c>
       <c r="C2" t="s">
         <v>37</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>700</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>700</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>700</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/xlsx/data.xlsx
+++ b/Assets/xlsx/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityFile\MobileProject\Assets\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9404249-0827-4ACE-940F-17CB043E8ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1035" windowWidth="21675" windowHeight="14250" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -260,7 +266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -609,7 +615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -933,11 +939,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -995,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1096,11 +1102,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1130,7 +1136,7 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1144,7 +1150,7 @@
         <v>56</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1158,7 +1164,7 @@
         <v>56</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1172,7 +1178,7 @@
         <v>56</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1186,7 +1192,7 @@
         <v>55</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1200,7 +1206,7 @@
         <v>55</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1214,7 +1220,7 @@
         <v>55</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1228,7 +1234,7 @@
         <v>55</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1242,7 +1248,7 @@
         <v>55</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1256,7 +1262,7 @@
         <v>55</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1270,7 +1276,7 @@
         <v>55</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1284,7 +1290,7 @@
         <v>55</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1298,7 +1304,7 @@
         <v>55</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1312,7 +1318,7 @@
         <v>55</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1326,7 +1332,7 @@
         <v>55</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1340,7 +1346,7 @@
         <v>55</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1354,7 +1360,7 @@
         <v>55</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1364,11 +1370,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1402,7 +1408,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -1417,12 +1423,12 @@
         <v>700</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -1437,12 +1443,12 @@
         <v>700</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -1457,7 +1463,7 @@
         <v>700</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/xlsx/data.xlsx
+++ b/Assets/xlsx/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityFile\MobileProject\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9404249-0827-4ACE-940F-17CB043E8ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA82FEFB-2EDA-4879-93A0-9BDC78B5A9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="67">
   <si>
     <t>code</t>
   </si>
@@ -260,6 +260,10 @@
   </si>
   <si>
     <t>Assets/Prefab/Monster/FlyingHead.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eliteMonsterCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1103,15 +1107,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1122,10 +1129,13 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1138,8 +1148,11 @@
       <c r="D2">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1150,10 +1163,13 @@
         <v>56</v>
       </c>
       <c r="D3">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="E3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1164,10 +1180,13 @@
         <v>56</v>
       </c>
       <c r="D4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+      <c r="E4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1178,10 +1197,13 @@
         <v>56</v>
       </c>
       <c r="D5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+      <c r="E5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1192,10 +1214,13 @@
         <v>55</v>
       </c>
       <c r="D6">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+      <c r="E6">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1206,10 +1231,13 @@
         <v>55</v>
       </c>
       <c r="D7">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+      <c r="E7">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1220,10 +1248,13 @@
         <v>55</v>
       </c>
       <c r="D8">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>701</v>
+      </c>
+      <c r="E8">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1234,10 +1265,13 @@
         <v>55</v>
       </c>
       <c r="D9">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>801</v>
+      </c>
+      <c r="E9">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1248,10 +1282,13 @@
         <v>55</v>
       </c>
       <c r="D10">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>901</v>
+      </c>
+      <c r="E10">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1262,10 +1299,13 @@
         <v>55</v>
       </c>
       <c r="D11">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1001</v>
+      </c>
+      <c r="E11">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1276,10 +1316,13 @@
         <v>55</v>
       </c>
       <c r="D12">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1101</v>
+      </c>
+      <c r="E12">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1290,10 +1333,13 @@
         <v>55</v>
       </c>
       <c r="D13">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1201</v>
+      </c>
+      <c r="E13">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1304,10 +1350,13 @@
         <v>55</v>
       </c>
       <c r="D14">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1301</v>
+      </c>
+      <c r="E14">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1318,10 +1367,13 @@
         <v>55</v>
       </c>
       <c r="D15">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1401</v>
+      </c>
+      <c r="E15">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1332,10 +1384,13 @@
         <v>55</v>
       </c>
       <c r="D16">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1501</v>
+      </c>
+      <c r="E16">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1346,10 +1401,13 @@
         <v>55</v>
       </c>
       <c r="D17">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1601</v>
+      </c>
+      <c r="E17">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1360,7 +1418,10 @@
         <v>55</v>
       </c>
       <c r="D18">
-        <v>101</v>
+        <v>1701</v>
+      </c>
+      <c r="E18">
+        <v>1702</v>
       </c>
     </row>
   </sheetData>
@@ -1371,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1408,7 +1469,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -1428,7 +1489,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -1437,10 +1498,10 @@
         <v>65</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1463,6 +1524,426 @@
         <v>700</v>
       </c>
       <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>301</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>700</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>302</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>401</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>700</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>402</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>501</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>700</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>502</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>150</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>601</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>700</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>602</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>701</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>700</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>702</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>801</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>700</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>802</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>901</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>700</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>902</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19">
+        <v>1000</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>700</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1002</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>150</v>
+      </c>
+      <c r="E21">
+        <v>1000</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>700</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>150</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1201</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>700</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1202</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>150</v>
+      </c>
+      <c r="E25">
+        <v>1000</v>
+      </c>
+      <c r="F25">
         <v>2</v>
       </c>
     </row>

--- a/Assets/xlsx/data.xlsx
+++ b/Assets/xlsx/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityFile\MobileProject\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA82FEFB-2EDA-4879-93A0-9BDC78B5A9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A22BDB1-D9A6-416F-BCBF-A29C80F06103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1434,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>

--- a/Assets/xlsx/data.xlsx
+++ b/Assets/xlsx/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityFile\MobileProject\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A22BDB1-D9A6-416F-BCBF-A29C80F06103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C6AFAF-47AE-4B04-9E86-CD12975BF3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -1109,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/xlsx/data.xlsx
+++ b/Assets/xlsx/data.xlsx
@@ -1,16 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityFile\MobileProject\Assets\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C6AFAF-47AE-4B04-9E86-CD12975BF3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -18,13 +11,15 @@
     <sheet name="skills" sheetId="5" r:id="rId3"/>
     <sheet name="stages" sheetId="4" r:id="rId4"/>
     <sheet name="bossMonsters" sheetId="6" r:id="rId5"/>
+    <sheet name="status" sheetId="7" r:id="rId6"/>
+    <sheet name="lvTable" sheetId="12" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>code</t>
   </si>
@@ -38,254 +33,240 @@
     <t>name</t>
   </si>
   <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>itemType</t>
+  </si>
+  <si>
+    <t>lootRange</t>
+  </si>
+  <si>
     <t xml:space="preserve">ㅣㅇ뭐뭐다 </t>
   </si>
   <si>
     <t>aa</t>
   </si>
   <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
     <t>ㅁ</t>
   </si>
   <si>
     <t>bb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material</t>
   </si>
   <si>
     <t>cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemType</t>
-  </si>
-  <si>
-    <t>Weapon</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>lootRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>RedAxeDemon</t>
+  </si>
+  <si>
+    <t>Assets/Prefab/Monster/RedAx.prefab</t>
+  </si>
+  <si>
+    <t>FlyingHead</t>
+  </si>
+  <si>
+    <t>Assets/Prefab/Monster/FlyingHead.prefab</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>coolTime</t>
+  </si>
+  <si>
+    <t>imagePath</t>
+  </si>
+  <si>
+    <t>fxPrerfabPath</t>
+  </si>
+  <si>
+    <t>Explosion</t>
+  </si>
+  <si>
+    <t>icons[ExplosionSkill]</t>
+  </si>
+  <si>
+    <t>Assets/Prefab/Effect/P_ExplosionFx.prefab</t>
+  </si>
+  <si>
+    <t>MagicTornado</t>
+  </si>
+  <si>
+    <t>icons[MagicTornadoSkill]</t>
+  </si>
+  <si>
+    <t>Assets/Prefab/Skill/P_SkillMagicTornado.prefab</t>
+  </si>
+  <si>
+    <t>FireBall</t>
+  </si>
+  <si>
+    <t>icons[FireBallSkill]</t>
+  </si>
+  <si>
+    <t>Assets/Prefab/Skill/P_SkillFireBall.prefab</t>
+  </si>
+  <si>
+    <t>monsters</t>
+  </si>
+  <si>
+    <t>eliteMonsterCode</t>
+  </si>
+  <si>
+    <t>bossCode</t>
+  </si>
+  <si>
+    <t>숲-1</t>
   </si>
   <si>
     <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲-2</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>숲-3</t>
+  </si>
+  <si>
+    <t>숲-4</t>
+  </si>
+  <si>
+    <t>숲-5</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>숲-6</t>
+  </si>
+  <si>
+    <t>숲-7</t>
+  </si>
+  <si>
+    <t>숲-8</t>
+  </si>
+  <si>
+    <t>숲-9</t>
+  </si>
+  <si>
+    <t>숲-10</t>
+  </si>
+  <si>
+    <t>숲-11</t>
+  </si>
+  <si>
+    <t>숲-12</t>
+  </si>
+  <si>
+    <t>숲-13</t>
+  </si>
+  <si>
+    <t>숲-14</t>
+  </si>
+  <si>
+    <t>숲-15</t>
+  </si>
+  <si>
+    <t>숲-16</t>
+  </si>
+  <si>
+    <t>숲-17</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숲-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Prefab/Monster/RedAx.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
   </si>
   <si>
     <t>health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coolTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Explosion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imagePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fxPrerfabPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Prefab/Effect/P_ExplosionFx.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/1-bit 16px icons part-1 outlines[ExplosionSkill]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Prefab/Skill/P_SkillMagicTornado.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/1-bit 16px icons part-1 outlines[MagicTornadoSkill]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicTornado</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Prefab/Skill/P_SkillFireBall.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/1-bit 16px icons part-1 outlines[FireBallSkill]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedAxeDemon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackRate</t>
   </si>
   <si>
     <t>FlyingHead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Assets/Prefab/Monster/FlyingHead.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숲-2</t>
-  </si>
-  <si>
-    <t>숲-3</t>
-  </si>
-  <si>
-    <t>숲-4</t>
-  </si>
-  <si>
-    <t>숲-5</t>
-  </si>
-  <si>
-    <t>숲-6</t>
-  </si>
-  <si>
-    <t>숲-7</t>
-  </si>
-  <si>
-    <t>숲-8</t>
-  </si>
-  <si>
-    <t>숲-9</t>
-  </si>
-  <si>
-    <t>숲-10</t>
-  </si>
-  <si>
-    <t>숲-11</t>
-  </si>
-  <si>
-    <t>숲-12</t>
-  </si>
-  <si>
-    <t>숲-13</t>
-  </si>
-  <si>
-    <t>숲-14</t>
-  </si>
-  <si>
-    <t>숲-15</t>
-  </si>
-  <si>
-    <t>숲-16</t>
-  </si>
-  <si>
-    <t>숲-17</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlyingHead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Prefab/Monster/FlyingHead.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eliteMonsterCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statKind</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>lvTableCode</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>공격력</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>체력</t>
+  </si>
+  <si>
+    <t>startLv</t>
+  </si>
+  <si>
+    <t>endLv</t>
+  </si>
+  <si>
+    <t>Incr</t>
+  </si>
+  <si>
+    <t>costIncr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="164" formatCode="mm&quot;월&quot; dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -298,34 +279,20 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -334,10 +301,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -613,26 +580,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88" customWidth="1"/>
+    <col min="7" max="7" width="9.88" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,99 +610,99 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -746,18 +710,18 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="E7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8">
         <v>6</v>
       </c>
@@ -765,13 +729,13 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9">
         <v>7</v>
       </c>
@@ -779,16 +743,16 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -796,16 +760,16 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
         <v>9</v>
       </c>
@@ -813,13 +777,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -827,16 +791,16 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
         <v>11</v>
       </c>
@@ -844,16 +808,16 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>12</v>
       </c>
@@ -861,16 +825,16 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -878,16 +842,16 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16">
         <v>14</v>
       </c>
@@ -895,13 +859,13 @@
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17">
         <v>15</v>
       </c>
@@ -909,16 +873,16 @@
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18">
         <v>16</v>
       </c>
@@ -926,37 +890,34 @@
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -967,70 +928,68 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>25</v>
@@ -1039,12 +998,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1056,15 +1015,15 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1073,18 +1032,18 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1096,54 +1055,52 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>101</v>
@@ -1152,15 +1109,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>201</v>
@@ -1169,15 +1126,15 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>301</v>
@@ -1186,15 +1143,15 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>401</v>
@@ -1203,15 +1160,15 @@
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>501</v>
@@ -1220,15 +1177,15 @@
         <v>502</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>601</v>
@@ -1237,15 +1194,15 @@
         <v>602</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>701</v>
@@ -1254,15 +1211,15 @@
         <v>702</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>801</v>
@@ -1271,15 +1228,15 @@
         <v>802</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
       </c>
       <c r="D10">
         <v>901</v>
@@ -1288,15 +1245,15 @@
         <v>902</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>1001</v>
@@ -1305,15 +1262,15 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>1101</v>
@@ -1322,15 +1279,15 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <v>1201</v>
@@ -1339,15 +1296,15 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>1301</v>
@@ -1356,15 +1313,15 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D15">
         <v>1401</v>
@@ -1373,15 +1330,15 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D16">
         <v>1501</v>
@@ -1390,15 +1347,15 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>1601</v>
@@ -1407,15 +1364,15 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>1701</v>
@@ -1425,57 +1382,55 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.63" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
       <c r="F1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -1487,15 +1442,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3">
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>150</v>
@@ -1507,15 +1462,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4">
         <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -1527,15 +1482,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5">
         <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>150</v>
@@ -1547,15 +1502,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6">
         <v>301</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1567,15 +1522,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7">
         <v>302</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>150</v>
@@ -1587,15 +1542,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8">
         <v>401</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -1607,15 +1562,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9">
         <v>402</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>150</v>
@@ -1627,15 +1582,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10">
         <v>501</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>100</v>
@@ -1647,15 +1602,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11">
         <v>502</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>150</v>
@@ -1667,15 +1622,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12">
         <v>601</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -1687,15 +1642,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13">
         <v>602</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>150</v>
@@ -1707,15 +1662,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14">
         <v>701</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>100</v>
@@ -1727,15 +1682,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15">
         <v>702</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>150</v>
@@ -1747,15 +1702,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16">
         <v>801</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>100</v>
@@ -1767,15 +1722,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17">
         <v>802</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>150</v>
@@ -1787,15 +1742,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18">
         <v>901</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>100</v>
@@ -1807,15 +1762,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19">
         <v>902</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>150</v>
@@ -1827,15 +1782,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20">
         <v>1001</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>100</v>
@@ -1847,15 +1802,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21">
         <v>1002</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>150</v>
@@ -1867,15 +1822,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22">
         <v>1101</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -1887,15 +1842,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23">
         <v>1102</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>150</v>
@@ -1907,15 +1862,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24">
         <v>1201</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <v>100</v>
@@ -1927,15 +1882,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25">
         <v>1202</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D25">
         <v>150</v>
@@ -1948,8 +1903,552 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup r:id="rId1" paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col min="4" max="4" width="14.38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="I4"/>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>71</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>81</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>91</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>101</v>
+      </c>
+      <c r="C12">
+        <v>110</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>111</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>121</v>
+      </c>
+      <c r="C14">
+        <v>130</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>61</v>
+      </c>
+      <c r="C21">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>71</v>
+      </c>
+      <c r="C22">
+        <v>80</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>81</v>
+      </c>
+      <c r="C23">
+        <v>90</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>91</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>101</v>
+      </c>
+      <c r="C25">
+        <v>110</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>111</v>
+      </c>
+      <c r="C26">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>121</v>
+      </c>
+      <c r="C27">
+        <v>130</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
--- a/Assets/xlsx/data.xlsx
+++ b/Assets/xlsx/data.xlsx
@@ -1,9 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityFile\MobileProject\Assets\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD2E40F-E1C5-42F7-8BC3-F30A725E7A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -12,14 +19,15 @@
     <sheet name="stages" sheetId="4" r:id="rId4"/>
     <sheet name="bossMonsters" sheetId="6" r:id="rId5"/>
     <sheet name="status" sheetId="7" r:id="rId6"/>
-    <sheet name="lvTable" sheetId="12" r:id="rId7"/>
+    <sheet name="dungeons" sheetId="13" r:id="rId7"/>
+    <sheet name="lvTable" sheetId="12" r:id="rId8"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="141">
   <si>
     <t>code</t>
   </si>
@@ -253,20 +261,229 @@
   </si>
   <si>
     <t>costIncr</t>
+  </si>
+  <si>
+    <t>던전-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전-2</t>
+  </si>
+  <si>
+    <t>던전-3</t>
+  </si>
+  <si>
+    <t>던전-4</t>
+  </si>
+  <si>
+    <t>던전-5</t>
+  </si>
+  <si>
+    <t>던전-6</t>
+  </si>
+  <si>
+    <t>던전-7</t>
+  </si>
+  <si>
+    <t>던전-8</t>
+  </si>
+  <si>
+    <t>던전-9</t>
+  </si>
+  <si>
+    <t>던전-10</t>
+  </si>
+  <si>
+    <t>던전-11</t>
+  </si>
+  <si>
+    <t>던전-12</t>
+  </si>
+  <si>
+    <t>던전-13</t>
+  </si>
+  <si>
+    <t>던전-14</t>
+  </si>
+  <si>
+    <t>던전-15</t>
+  </si>
+  <si>
+    <t>던전-16</t>
+  </si>
+  <si>
+    <t>던전-17</t>
+  </si>
+  <si>
+    <t>던전-18</t>
+  </si>
+  <si>
+    <t>던전-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dungeonCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold,10</t>
+  </si>
+  <si>
+    <t>stageCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold,20</t>
+  </si>
+  <si>
+    <t>Gold,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold,12</t>
+  </si>
+  <si>
+    <t>Gold,13</t>
+  </si>
+  <si>
+    <t>Gold,14</t>
+  </si>
+  <si>
+    <t>Gold,15</t>
+  </si>
+  <si>
+    <t>Gold,16</t>
+  </si>
+  <si>
+    <t>Gold,17</t>
+  </si>
+  <si>
+    <t>Gold,18</t>
+  </si>
+  <si>
+    <t>Gold,19</t>
+  </si>
+  <si>
+    <t>Gold,21</t>
+  </si>
+  <si>
+    <t>Gold,22</t>
+  </si>
+  <si>
+    <t>Gold,23</t>
+  </si>
+  <si>
+    <t>Gold,24</t>
+  </si>
+  <si>
+    <t>Gold,25</t>
+  </si>
+  <si>
+    <t>Gold,26</t>
+  </si>
+  <si>
+    <t>Gold,27</t>
+  </si>
+  <si>
+    <t>Gold,100/Gold,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold,110/Gold,105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold,110/Gold,106</t>
+  </si>
+  <si>
+    <t>Gold,110/Gold,107</t>
+  </si>
+  <si>
+    <t>Gold,110/Gold,108</t>
+  </si>
+  <si>
+    <t>Gold,110/Gold,109</t>
+  </si>
+  <si>
+    <t>Gold,110/Gold,110</t>
+  </si>
+  <si>
+    <t>Gold,110/Gold,111</t>
+  </si>
+  <si>
+    <t>Gold,110/Gold,112</t>
+  </si>
+  <si>
+    <t>Gold,110/Gold,113</t>
+  </si>
+  <si>
+    <t>Gold,110/Gold,114</t>
+  </si>
+  <si>
+    <t>Gold,110/Gold,115</t>
+  </si>
+  <si>
+    <t>Gold,110/Gold,116</t>
+  </si>
+  <si>
+    <t>Gold,110/Gold,117</t>
+  </si>
+  <si>
+    <t>Gold,110/Gold,118</t>
+  </si>
+  <si>
+    <t>Gold,110/Gold,119</t>
+  </si>
+  <si>
+    <t>Gold,110/Gold,120</t>
+  </si>
+  <si>
+    <t>Gold,110/Gold,121</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dungeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm&quot;월&quot; dd&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -279,20 +496,34 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -301,10 +532,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -580,23 +811,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.88" customWidth="1"/>
-    <col min="7" max="7" width="9.88" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -642,7 +876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -662,7 +896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -682,7 +916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -702,7 +936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -716,12 +950,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -735,7 +969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -752,7 +986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -769,7 +1003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -783,7 +1017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -800,7 +1034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -817,7 +1051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -834,7 +1068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -851,7 +1085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -865,7 +1099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -882,7 +1116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -900,24 +1134,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.63" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -931,7 +1168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -945,7 +1182,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -960,25 +1197,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.63" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -998,7 +1238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1018,7 +1258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1038,7 +1278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1059,23 +1299,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="17.38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1083,16 +1326,19 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1100,16 +1346,19 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>101</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>102</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1117,16 +1366,19 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>201</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>202</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1134,16 +1386,19 @@
         <v>43</v>
       </c>
       <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>301</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>302</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1151,16 +1406,19 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
         <v>42</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>401</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>402</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1168,16 +1426,19 @@
         <v>45</v>
       </c>
       <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>501</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>502</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1185,16 +1446,19 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>601</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>602</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1202,16 +1466,19 @@
         <v>48</v>
       </c>
       <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>701</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>702</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1219,16 +1486,19 @@
         <v>49</v>
       </c>
       <c r="C9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>801</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>802</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1236,16 +1506,19 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>901</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>902</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1253,16 +1526,19 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1001</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1002</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1270,16 +1546,19 @@
         <v>52</v>
       </c>
       <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1101</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1102</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1287,16 +1566,19 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1201</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1202</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1304,16 +1586,19 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" t="s">
         <v>46</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1301</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1302</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1321,16 +1606,19 @@
         <v>55</v>
       </c>
       <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1401</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1402</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1338,16 +1626,19 @@
         <v>56</v>
       </c>
       <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" t="s">
         <v>46</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1501</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1502</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1355,16 +1646,19 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" t="s">
         <v>46</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1601</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1602</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1372,37 +1666,403 @@
         <v>58</v>
       </c>
       <c r="C18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" t="s">
         <v>46</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1701</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1702</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>101</v>
+      </c>
+      <c r="F21">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10002</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>201</v>
+      </c>
+      <c r="F22">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10003</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>301</v>
+      </c>
+      <c r="F23">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>10004</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>401</v>
+      </c>
+      <c r="F24">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10005</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>501</v>
+      </c>
+      <c r="F25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10006</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>601</v>
+      </c>
+      <c r="F26">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>10007</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>701</v>
+      </c>
+      <c r="F27">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>10008</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>801</v>
+      </c>
+      <c r="F28">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10009</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>901</v>
+      </c>
+      <c r="F29">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>10010</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1001</v>
+      </c>
+      <c r="F30">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>10011</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1101</v>
+      </c>
+      <c r="F31">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10012</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1201</v>
+      </c>
+      <c r="F32">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>10013</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1301</v>
+      </c>
+      <c r="F33">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>10014</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1401</v>
+      </c>
+      <c r="F34">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>10015</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1501</v>
+      </c>
+      <c r="F35">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>10016</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1601</v>
+      </c>
+      <c r="F36">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>10017</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1701</v>
+      </c>
+      <c r="F37">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>10018</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1801</v>
+      </c>
+      <c r="F38">
+        <v>1802</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.63" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1422,7 +2082,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1442,7 +2102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1462,7 +2122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>201</v>
       </c>
@@ -1482,7 +2142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>202</v>
       </c>
@@ -1502,7 +2162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>301</v>
       </c>
@@ -1522,7 +2182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>302</v>
       </c>
@@ -1542,7 +2202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>401</v>
       </c>
@@ -1562,7 +2222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>402</v>
       </c>
@@ -1582,7 +2242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>501</v>
       </c>
@@ -1602,7 +2262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>502</v>
       </c>
@@ -1622,7 +2282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>601</v>
       </c>
@@ -1642,7 +2302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>602</v>
       </c>
@@ -1662,7 +2322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>701</v>
       </c>
@@ -1682,7 +2342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>702</v>
       </c>
@@ -1702,7 +2362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>801</v>
       </c>
@@ -1722,7 +2382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>802</v>
       </c>
@@ -1742,7 +2402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>901</v>
       </c>
@@ -1762,7 +2422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>902</v>
       </c>
@@ -1782,7 +2442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1001</v>
       </c>
@@ -1802,7 +2462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1002</v>
       </c>
@@ -1822,7 +2482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1101</v>
       </c>
@@ -1842,7 +2502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1102</v>
       </c>
@@ -1862,7 +2522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1201</v>
       </c>
@@ -1882,7 +2542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1202</v>
       </c>
@@ -1903,22 +2563,26 @@
       </c>
     </row>
   </sheetData>
-  <pageSetup r:id="rId1" paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1932,7 +2596,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1946,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1960,28 +2624,367 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-    </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FC85E6-24B0-4D8A-B69D-00E4F09EBE80}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13">
+        <v>10012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14">
+        <v>10013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15">
+        <v>10014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16">
+        <v>10015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17">
+        <v>10016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18">
+        <v>10017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19">
+        <v>10018</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:K6"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1998,7 +3001,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2014,12 +3017,8 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2035,12 +3034,8 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2056,9 +3051,8 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="I4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2075,7 +3069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2092,7 +3086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2109,7 +3103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2126,7 +3120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2143,7 +3137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2160,7 +3154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2177,7 +3171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2194,7 +3188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2211,7 +3205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2228,7 +3222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2245,7 +3239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2262,7 +3256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2279,7 +3273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2296,7 +3290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2313,7 +3307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2330,7 +3324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2347,7 +3341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2364,7 +3358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2381,7 +3375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2398,7 +3392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2415,7 +3409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2432,7 +3426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2450,5 +3444,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/xlsx/data.xlsx
+++ b/Assets/xlsx/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityFile\MobileProject\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD2E40F-E1C5-42F7-8BC3-F30A725E7A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10E237F-A1CC-4C46-90B1-100E99D6373D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11895" yWindow="1140" windowWidth="21675" windowHeight="14250" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2635,7 +2635,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/xlsx/data.xlsx
+++ b/Assets/xlsx/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityFile\MobileProject\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10E237F-A1CC-4C46-90B1-100E99D6373D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AC10E8-BA14-47F7-A6BB-1F20CF29E728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="1140" windowWidth="21675" windowHeight="14250" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="915" windowWidth="21675" windowHeight="14250" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="145">
   <si>
     <t>code</t>
   </si>
@@ -463,6 +463,20 @@
   <si>
     <t>Dungeon</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲-18</t>
+  </si>
+  <si>
+    <t>backgroundPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/Background_Forest.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/Background_SmallCave.prefab</t>
   </si>
 </sst>
 </file>
@@ -1307,18 +1321,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1337,8 +1352,11 @@
       <c r="F1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1357,8 +1375,11 @@
       <c r="F2">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1377,8 +1398,11 @@
       <c r="F3">
         <v>202</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1397,8 +1421,11 @@
       <c r="F4">
         <v>302</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1417,8 +1444,11 @@
       <c r="F5">
         <v>402</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1437,8 +1467,11 @@
       <c r="F6">
         <v>502</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1457,8 +1490,11 @@
       <c r="F7">
         <v>602</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1477,8 +1513,11 @@
       <c r="F8">
         <v>702</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1497,8 +1536,11 @@
       <c r="F9">
         <v>802</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1517,8 +1559,11 @@
       <c r="F10">
         <v>902</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1537,8 +1582,11 @@
       <c r="F11">
         <v>1002</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1557,8 +1605,11 @@
       <c r="F12">
         <v>1102</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1577,8 +1628,11 @@
       <c r="F13">
         <v>1202</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1597,8 +1651,11 @@
       <c r="F14">
         <v>1302</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1617,8 +1674,11 @@
       <c r="F15">
         <v>1402</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1637,8 +1697,11 @@
       <c r="F16">
         <v>1502</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1657,8 +1720,11 @@
       <c r="F17">
         <v>1602</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1677,8 +1743,34 @@
       <c r="F18">
         <v>1702</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>1801</v>
+      </c>
+      <c r="F19">
+        <v>1802</v>
+      </c>
+      <c r="G19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10001</v>
       </c>
@@ -1697,8 +1789,11 @@
       <c r="F21">
         <v>102</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10002</v>
       </c>
@@ -1717,8 +1812,11 @@
       <c r="F22">
         <v>202</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10003</v>
       </c>
@@ -1737,8 +1835,11 @@
       <c r="F23">
         <v>302</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10004</v>
       </c>
@@ -1757,8 +1858,11 @@
       <c r="F24">
         <v>402</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10005</v>
       </c>
@@ -1777,8 +1881,11 @@
       <c r="F25">
         <v>502</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10006</v>
       </c>
@@ -1797,8 +1904,11 @@
       <c r="F26">
         <v>602</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10007</v>
       </c>
@@ -1817,8 +1927,11 @@
       <c r="F27">
         <v>702</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10008</v>
       </c>
@@ -1837,8 +1950,11 @@
       <c r="F28">
         <v>802</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10009</v>
       </c>
@@ -1857,8 +1973,11 @@
       <c r="F29">
         <v>902</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10010</v>
       </c>
@@ -1877,8 +1996,11 @@
       <c r="F30">
         <v>1002</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10011</v>
       </c>
@@ -1897,8 +2019,11 @@
       <c r="F31">
         <v>1102</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10012</v>
       </c>
@@ -1917,8 +2042,11 @@
       <c r="F32">
         <v>1202</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>10013</v>
       </c>
@@ -1937,8 +2065,11 @@
       <c r="F33">
         <v>1302</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>10014</v>
       </c>
@@ -1957,8 +2088,11 @@
       <c r="F34">
         <v>1402</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>10015</v>
       </c>
@@ -1977,8 +2111,11 @@
       <c r="F35">
         <v>1502</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>10016</v>
       </c>
@@ -1997,8 +2134,11 @@
       <c r="F36">
         <v>1602</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10017</v>
       </c>
@@ -2017,8 +2157,11 @@
       <c r="F37">
         <v>1702</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10018</v>
       </c>
@@ -2036,6 +2179,9 @@
       </c>
       <c r="F38">
         <v>1802</v>
+      </c>
+      <c r="G38" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2634,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FC85E6-24B0-4D8A-B69D-00E4F09EBE80}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2979,7 +3125,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:K6"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/xlsx/data.xlsx
+++ b/Assets/xlsx/data.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityFile\MobileProject\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AC10E8-BA14-47F7-A6BB-1F20CF29E728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF5CC5E-90FB-4B42-B5BF-A25E95C8C00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="915" windowWidth="21675" windowHeight="14250" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15000" yWindow="690" windowWidth="21675" windowHeight="14250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
-    <sheet name="monsters" sheetId="3" r:id="rId2"/>
-    <sheet name="skills" sheetId="5" r:id="rId3"/>
-    <sheet name="stages" sheetId="4" r:id="rId4"/>
-    <sheet name="bossMonsters" sheetId="6" r:id="rId5"/>
-    <sheet name="status" sheetId="7" r:id="rId6"/>
-    <sheet name="dungeons" sheetId="13" r:id="rId7"/>
-    <sheet name="lvTable" sheetId="12" r:id="rId8"/>
+    <sheet name="equipment" sheetId="14" r:id="rId2"/>
+    <sheet name="monsters" sheetId="3" r:id="rId3"/>
+    <sheet name="skills" sheetId="5" r:id="rId4"/>
+    <sheet name="stages" sheetId="4" r:id="rId5"/>
+    <sheet name="bossMonsters" sheetId="6" r:id="rId6"/>
+    <sheet name="status" sheetId="7" r:id="rId7"/>
+    <sheet name="dungeons" sheetId="13" r:id="rId8"/>
+    <sheet name="lvTable" sheetId="12" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="203">
   <si>
     <t>code</t>
   </si>
@@ -45,9 +46,6 @@
   </si>
   <si>
     <t>itemType</t>
-  </si>
-  <si>
-    <t>lootRange</t>
   </si>
   <si>
     <t xml:space="preserve">ㅣㅇ뭐뭐다 </t>
@@ -477,6 +475,207 @@
   </si>
   <si>
     <t>BackGround/Background_SmallCave.prefab</t>
+  </si>
+  <si>
+    <t>stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statPerLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipSlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack,30/Health,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack,30/Health,32</t>
+  </si>
+  <si>
+    <t>Attack,30/Health,33</t>
+  </si>
+  <si>
+    <t>Attack,30/Health,34</t>
+  </si>
+  <si>
+    <t>Attack,30/Health,31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor2</t>
+  </si>
+  <si>
+    <t>armor3</t>
+  </si>
+  <si>
+    <t>armor4</t>
+  </si>
+  <si>
+    <t>armor5</t>
+  </si>
+  <si>
+    <t>ring1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ring2</t>
+  </si>
+  <si>
+    <t>ring3</t>
+  </si>
+  <si>
+    <t>ring4</t>
+  </si>
+  <si>
+    <t>ring5</t>
+  </si>
+  <si>
+    <t>boots1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boots2</t>
+  </si>
+  <si>
+    <t>boots3</t>
+  </si>
+  <si>
+    <t>boots4</t>
+  </si>
+  <si>
+    <t>boots5</t>
+  </si>
+  <si>
+    <t>shield1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield2</t>
+  </si>
+  <si>
+    <t>shield3</t>
+  </si>
+  <si>
+    <t>shield4</t>
+  </si>
+  <si>
+    <t>shield5</t>
+  </si>
+  <si>
+    <t>Health,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health,41</t>
+  </si>
+  <si>
+    <t>Health,42</t>
+  </si>
+  <si>
+    <t>Health,43</t>
+  </si>
+  <si>
+    <t>Health,44</t>
+  </si>
+  <si>
+    <t>Attack,20/Health,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack,20/Health,21</t>
+  </si>
+  <si>
+    <t>Attack,20/Health,22</t>
+  </si>
+  <si>
+    <t>Attack,20/Health,23</t>
+  </si>
+  <si>
+    <t>Attack,20/Health,24</t>
+  </si>
+  <si>
+    <t>Health,35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health,36</t>
+  </si>
+  <si>
+    <t>Health,37</t>
+  </si>
+  <si>
+    <t>Health,38</t>
+  </si>
+  <si>
+    <t>Health,39</t>
+  </si>
+  <si>
+    <t>Attack,10/Health,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack,10/Health,26</t>
+  </si>
+  <si>
+    <t>Attack,10/Health,27</t>
+  </si>
+  <si>
+    <t>Attack,10/Health,28</t>
+  </si>
+  <si>
+    <t>Attack,10/Health,29</t>
   </si>
 </sst>
 </file>
@@ -835,7 +1034,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="G1" sqref="G1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -863,51 +1062,46 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>22</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -915,19 +1109,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -935,19 +1129,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -958,7 +1152,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -977,7 +1171,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -991,13 +1185,13 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1008,13 +1202,13 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1025,7 +1219,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1039,13 +1233,13 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1056,13 +1250,13 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1073,13 +1267,13 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1090,13 +1284,13 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1107,7 +1301,7 @@
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1121,13 +1315,13 @@
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1138,13 +1332,13 @@
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1155,6 +1349,471 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1084639-34E5-4FCD-98BA-DB88D8409A86}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2003</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2005</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3003</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3004</v>
+      </c>
+      <c r="B15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3005</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4003</v>
+      </c>
+      <c r="B19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4005</v>
+      </c>
+      <c r="B21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>5002</v>
+      </c>
+      <c r="B23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5003</v>
+      </c>
+      <c r="B24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5004</v>
+      </c>
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5005</v>
+      </c>
+      <c r="B26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1176,10 +1835,10 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1187,10 +1846,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -1201,10 +1860,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -1217,7 +1876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1234,22 +1893,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1257,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1266,10 +1925,10 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1277,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -1286,10 +1945,10 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
         <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1297,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1306,10 +1965,10 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1319,11 +1978,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -1335,25 +1994,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
       <c r="G1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1361,13 +2020,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
       </c>
       <c r="E2">
         <v>101</v>
@@ -1376,7 +2035,7 @@
         <v>102</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1384,13 +2043,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
       </c>
       <c r="E3">
         <v>201</v>
@@ -1399,7 +2058,7 @@
         <v>202</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1407,13 +2066,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>301</v>
@@ -1422,7 +2081,7 @@
         <v>302</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1430,13 +2089,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>401</v>
@@ -1445,7 +2104,7 @@
         <v>402</v>
       </c>
       <c r="G5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1453,13 +2112,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
       </c>
       <c r="E6">
         <v>501</v>
@@ -1468,7 +2127,7 @@
         <v>502</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1476,13 +2135,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>601</v>
@@ -1491,7 +2150,7 @@
         <v>602</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1499,13 +2158,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>701</v>
@@ -1514,7 +2173,7 @@
         <v>702</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1522,13 +2181,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>801</v>
@@ -1537,7 +2196,7 @@
         <v>802</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1545,13 +2204,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>901</v>
@@ -1560,7 +2219,7 @@
         <v>902</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1568,13 +2227,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>1001</v>
@@ -1583,7 +2242,7 @@
         <v>1002</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1591,13 +2250,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>1101</v>
@@ -1606,7 +2265,7 @@
         <v>1102</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1614,13 +2273,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>1201</v>
@@ -1629,7 +2288,7 @@
         <v>1202</v>
       </c>
       <c r="G13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1637,13 +2296,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>1301</v>
@@ -1652,7 +2311,7 @@
         <v>1302</v>
       </c>
       <c r="G14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1660,13 +2319,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>1401</v>
@@ -1675,7 +2334,7 @@
         <v>1402</v>
       </c>
       <c r="G15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1683,13 +2342,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>1501</v>
@@ -1698,7 +2357,7 @@
         <v>1502</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1706,13 +2365,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>1601</v>
@@ -1721,7 +2380,7 @@
         <v>1602</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1729,13 +2388,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>1701</v>
@@ -1744,7 +2403,7 @@
         <v>1702</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1752,13 +2411,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>1801</v>
@@ -1767,7 +2426,7 @@
         <v>1802</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1775,10 +2434,10 @@
         <v>10001</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1790,7 +2449,7 @@
         <v>102</v>
       </c>
       <c r="G21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1798,10 +2457,10 @@
         <v>10002</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1813,7 +2472,7 @@
         <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1821,10 +2480,10 @@
         <v>10003</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1836,7 +2495,7 @@
         <v>302</v>
       </c>
       <c r="G23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1844,10 +2503,10 @@
         <v>10004</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1859,7 +2518,7 @@
         <v>402</v>
       </c>
       <c r="G24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1867,10 +2526,10 @@
         <v>10005</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1882,7 +2541,7 @@
         <v>502</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1890,10 +2549,10 @@
         <v>10006</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1905,7 +2564,7 @@
         <v>602</v>
       </c>
       <c r="G26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1913,10 +2572,10 @@
         <v>10007</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1928,7 +2587,7 @@
         <v>702</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1936,10 +2595,10 @@
         <v>10008</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1951,7 +2610,7 @@
         <v>802</v>
       </c>
       <c r="G28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1959,10 +2618,10 @@
         <v>10009</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1974,7 +2633,7 @@
         <v>902</v>
       </c>
       <c r="G29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1982,10 +2641,10 @@
         <v>10010</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1997,7 +2656,7 @@
         <v>1002</v>
       </c>
       <c r="G30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2005,10 +2664,10 @@
         <v>10011</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2020,7 +2679,7 @@
         <v>1102</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2028,10 +2687,10 @@
         <v>10012</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2043,7 +2702,7 @@
         <v>1202</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2051,10 +2710,10 @@
         <v>10013</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2066,7 +2725,7 @@
         <v>1302</v>
       </c>
       <c r="G33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2074,10 +2733,10 @@
         <v>10014</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2089,7 +2748,7 @@
         <v>1402</v>
       </c>
       <c r="G34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2097,10 +2756,10 @@
         <v>10015</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2112,7 +2771,7 @@
         <v>1502</v>
       </c>
       <c r="G35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2120,10 +2779,10 @@
         <v>10016</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2135,7 +2794,7 @@
         <v>1602</v>
       </c>
       <c r="G36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2143,10 +2802,10 @@
         <v>10017</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2158,7 +2817,7 @@
         <v>1702</v>
       </c>
       <c r="G37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2166,10 +2825,10 @@
         <v>10018</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2181,7 +2840,7 @@
         <v>1802</v>
       </c>
       <c r="G38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2191,7 +2850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -2210,22 +2869,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>63</v>
-      </c>
-      <c r="F1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2233,10 +2892,10 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -2253,10 +2912,10 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
         <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
       </c>
       <c r="D3">
         <v>150</v>
@@ -2273,10 +2932,10 @@
         <v>201</v>
       </c>
       <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -2293,10 +2952,10 @@
         <v>202</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
       </c>
       <c r="D5">
         <v>150</v>
@@ -2313,10 +2972,10 @@
         <v>301</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -2333,10 +2992,10 @@
         <v>302</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
       <c r="D7">
         <v>150</v>
@@ -2353,10 +3012,10 @@
         <v>401</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -2373,10 +3032,10 @@
         <v>402</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
       <c r="D9">
         <v>150</v>
@@ -2393,10 +3052,10 @@
         <v>501</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
       </c>
       <c r="D10">
         <v>100</v>
@@ -2413,10 +3072,10 @@
         <v>502</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
       </c>
       <c r="D11">
         <v>150</v>
@@ -2433,10 +3092,10 @@
         <v>601</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -2453,10 +3112,10 @@
         <v>602</v>
       </c>
       <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
       </c>
       <c r="D13">
         <v>150</v>
@@ -2473,10 +3132,10 @@
         <v>701</v>
       </c>
       <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
         <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
       </c>
       <c r="D14">
         <v>100</v>
@@ -2493,10 +3152,10 @@
         <v>702</v>
       </c>
       <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
         <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
       </c>
       <c r="D15">
         <v>150</v>
@@ -2513,10 +3172,10 @@
         <v>801</v>
       </c>
       <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
       </c>
       <c r="D16">
         <v>100</v>
@@ -2533,10 +3192,10 @@
         <v>802</v>
       </c>
       <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
       </c>
       <c r="D17">
         <v>150</v>
@@ -2553,10 +3212,10 @@
         <v>901</v>
       </c>
       <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
         <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
       </c>
       <c r="D18">
         <v>100</v>
@@ -2573,10 +3232,10 @@
         <v>902</v>
       </c>
       <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
         <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
       </c>
       <c r="D19">
         <v>150</v>
@@ -2593,10 +3252,10 @@
         <v>1001</v>
       </c>
       <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
         <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
       </c>
       <c r="D20">
         <v>100</v>
@@ -2613,10 +3272,10 @@
         <v>1002</v>
       </c>
       <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
         <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
       </c>
       <c r="D21">
         <v>150</v>
@@ -2633,10 +3292,10 @@
         <v>1101</v>
       </c>
       <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
         <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -2653,10 +3312,10 @@
         <v>1102</v>
       </c>
       <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
         <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
       </c>
       <c r="D23">
         <v>150</v>
@@ -2673,10 +3332,10 @@
         <v>1201</v>
       </c>
       <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
         <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
       </c>
       <c r="D24">
         <v>100</v>
@@ -2693,10 +3352,10 @@
         <v>1202</v>
       </c>
       <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
         <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
       </c>
       <c r="D25">
         <v>150</v>
@@ -2715,7 +3374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2733,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>68</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2747,10 +3406,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2761,10 +3420,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2776,12 +3435,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FC85E6-24B0-4D8A-B69D-00E4F09EBE80}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2793,19 +3452,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2813,13 +3472,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>10001</v>
@@ -2830,13 +3489,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E3">
         <v>10002</v>
@@ -2847,13 +3506,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4">
         <v>10003</v>
@@ -2864,13 +3523,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E5">
         <v>10004</v>
@@ -2881,13 +3540,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6">
         <v>10005</v>
@@ -2898,13 +3557,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7">
         <v>10006</v>
@@ -2915,13 +3574,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8">
         <v>10007</v>
@@ -2932,13 +3591,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9">
         <v>10008</v>
@@ -2949,13 +3608,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10">
         <v>10009</v>
@@ -2966,13 +3625,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11">
         <v>10010</v>
@@ -2983,13 +3642,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12">
         <v>10011</v>
@@ -3000,13 +3659,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13">
         <v>10012</v>
@@ -3017,13 +3676,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14">
         <v>10013</v>
@@ -3034,13 +3693,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15">
         <v>10014</v>
@@ -3051,13 +3710,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16">
         <v>10015</v>
@@ -3068,13 +3727,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17">
         <v>10016</v>
@@ -3085,13 +3744,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18">
         <v>10017</v>
@@ -3102,13 +3761,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19">
         <v>10018</v>
@@ -3120,12 +3779,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3135,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">

--- a/Assets/xlsx/data.xlsx
+++ b/Assets/xlsx/data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityFile\MobileProject\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF5CC5E-90FB-4B42-B5BF-A25E95C8C00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE06D14-C258-48EF-80C0-B0D3EA5A502F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="690" windowWidth="21675" windowHeight="14250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10320" yWindow="2280" windowWidth="21675" windowHeight="14250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
-    <sheet name="equipment" sheetId="14" r:id="rId2"/>
+    <sheet name="equipments" sheetId="14" r:id="rId2"/>
     <sheet name="monsters" sheetId="3" r:id="rId3"/>
     <sheet name="skills" sheetId="5" r:id="rId4"/>
     <sheet name="stages" sheetId="4" r:id="rId5"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="204">
   <si>
     <t>code</t>
   </si>
@@ -481,10 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>statPerLv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -676,6 +672,14 @@
   </si>
   <si>
     <t>Attack,10/Health,29</t>
+  </si>
+  <si>
+    <t>statsPerLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1350,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1084639-34E5-4FCD-98BA-DB88D8409A86}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1362,7 +1366,7 @@
     <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1370,271 +1374,274 @@
         <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
         <v>144</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="G1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2004</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2005</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3001</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3002</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3003</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3004</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3005</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1642,16 +1649,16 @@
         <v>4001</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1659,16 +1666,16 @@
         <v>4002</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1676,16 +1683,16 @@
         <v>4003</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1693,16 +1700,16 @@
         <v>4004</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1710,16 +1717,16 @@
         <v>4005</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1727,16 +1734,16 @@
         <v>5001</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1744,16 +1751,16 @@
         <v>5002</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1761,16 +1768,16 @@
         <v>5003</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1778,16 +1785,16 @@
         <v>5004</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1795,16 +1802,16 @@
         <v>5005</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/xlsx/data.xlsx
+++ b/Assets/xlsx/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityFile\MobileProject\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE06D14-C258-48EF-80C0-B0D3EA5A502F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A138DE4D-B04F-411A-A686-B4D106E8E5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="2280" windowWidth="21675" windowHeight="14250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12990" yWindow="735" windowWidth="21675" windowHeight="14250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="217">
   <si>
     <t>code</t>
   </si>
@@ -671,14 +671,60 @@
     <t>Attack,10/Health,28</t>
   </si>
   <si>
+    <t>statsPerLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sword13</t>
+  </si>
+  <si>
+    <t>sword14</t>
+  </si>
+  <si>
+    <t>sword15</t>
+  </si>
+  <si>
+    <t>Attack,50/Health,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack,50/Health,31</t>
+  </si>
+  <si>
+    <t>Attack,50/Health,32</t>
+  </si>
+  <si>
+    <t>Attack,50/Health,33</t>
+  </si>
+  <si>
+    <t>Attack,50/Health,34</t>
+  </si>
+  <si>
+    <t>icons[equipIcon]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Attack,10/Health,29</t>
-  </si>
-  <si>
-    <t>statsPerLv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iconPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1354,16 +1400,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1084639-34E5-4FCD-98BA-DB88D8409A86}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1383,10 +1431,10 @@
         <v>144</v>
       </c>
       <c r="F1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" t="s">
         <v>202</v>
-      </c>
-      <c r="G1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1396,14 +1444,17 @@
       <c r="B2" t="s">
         <v>157</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>203</v>
       </c>
       <c r="D2" t="s">
         <v>145</v>
       </c>
       <c r="E2" t="s">
         <v>151</v>
+      </c>
+      <c r="G2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1413,14 +1464,17 @@
       <c r="B3" t="s">
         <v>158</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>203</v>
       </c>
       <c r="D3" t="s">
         <v>145</v>
       </c>
       <c r="E3" t="s">
         <v>156</v>
+      </c>
+      <c r="G3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1430,14 +1484,17 @@
       <c r="B4" t="s">
         <v>159</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>203</v>
       </c>
       <c r="D4" t="s">
         <v>145</v>
       </c>
       <c r="E4" t="s">
         <v>153</v>
+      </c>
+      <c r="G4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1447,14 +1504,17 @@
       <c r="B5" t="s">
         <v>160</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>203</v>
       </c>
       <c r="D5" t="s">
         <v>145</v>
       </c>
       <c r="E5" t="s">
         <v>154</v>
+      </c>
+      <c r="G5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1464,8 +1524,8 @@
       <c r="B6" t="s">
         <v>161</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>203</v>
       </c>
       <c r="D6" t="s">
         <v>145</v>
@@ -1473,345 +1533,508 @@
       <c r="E6" t="s">
         <v>155</v>
       </c>
+      <c r="G6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2001</v>
+        <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>210</v>
+      </c>
+      <c r="G7" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2002</v>
+        <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>211</v>
+      </c>
+      <c r="G8" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2003</v>
+        <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>207</v>
+      </c>
+      <c r="C9" t="s">
+        <v>204</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>212</v>
+      </c>
+      <c r="G9" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2004</v>
+        <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="C10" t="s">
+        <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
+        <v>213</v>
+      </c>
+      <c r="G10" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2005</v>
+        <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+        <v>209</v>
+      </c>
+      <c r="C11" t="s">
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>214</v>
+      </c>
+      <c r="G11" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+        <v>162</v>
+      </c>
+      <c r="C12" t="s">
+        <v>203</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>187</v>
+        <v>182</v>
+      </c>
+      <c r="G12" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3002</v>
+        <v>2002</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="C13" t="s">
+        <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>183</v>
+      </c>
+      <c r="G13" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3003</v>
+        <v>2003</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+        <v>164</v>
+      </c>
+      <c r="C14" t="s">
+        <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s">
-        <v>189</v>
+        <v>184</v>
+      </c>
+      <c r="G14" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3004</v>
+        <v>2004</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C15" t="s">
+        <v>203</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="G15" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>2005</v>
+      </c>
+      <c r="B16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3003</v>
+      </c>
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>3005</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>171</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" t="s">
         <v>148</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E21" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="G21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>4001</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>172</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" t="s">
         <v>149</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E22" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="G22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>4002</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B23" t="s">
         <v>173</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" t="s">
         <v>149</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E23" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="G23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>4003</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>174</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" t="s">
         <v>149</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E24" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="G24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>4004</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25" t="s">
         <v>175</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" t="s">
         <v>149</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E25" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="G25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>4005</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B26" t="s">
         <v>176</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" t="s">
         <v>149</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E26" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="G26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>5001</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B27" t="s">
         <v>177</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" t="s">
         <v>150</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E27" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="G27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>5002</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B28" t="s">
         <v>178</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" t="s">
         <v>150</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E28" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="G28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>5003</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B29" t="s">
         <v>179</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" t="s">
         <v>150</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E29" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="G29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>5004</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B30" t="s">
         <v>180</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" t="s">
         <v>150</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E30" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="G30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>5005</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
         <v>181</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" t="s">
         <v>150</v>
       </c>
-      <c r="E26" t="s">
-        <v>201</v>
+      <c r="E31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
